--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_1.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_1.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_1.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-263724.5473518896</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>11999055.8970861</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30789066.36991068</v>
+        <v>29311355.01008761</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.378726134181789e-10</v>
+        <v>825236.3227748527</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
@@ -22591,10 +22591,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>137.841438974359</v>
@@ -22673,7 +22673,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>134.8846762812383</v>
@@ -22746,10 +22746,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>220.0898510449805</v>
@@ -22828,10 +22828,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22886,7 +22886,7 @@
         <v>99.52238</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22986,7 +22986,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>220.0898510449805</v>
@@ -23065,10 +23065,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>137.841438974359</v>
@@ -23147,7 +23147,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,10 +23202,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>134.8846762812383</v>
@@ -23220,10 +23220,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23302,10 +23302,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -23375,7 +23375,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -23445,22 +23445,22 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>220.0898510449805</v>
@@ -23539,10 +23539,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23594,10 +23594,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -23621,7 +23621,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>134.8846762812383</v>
@@ -23694,10 +23694,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
@@ -23779,7 +23779,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R17" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23831,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -23858,7 +23858,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23916,7 +23916,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K19" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>134.8846762812383</v>
@@ -23931,10 +23931,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>220.0898510449805</v>
@@ -24013,10 +24013,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24068,13 +24068,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -24095,7 +24095,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24150,7 +24150,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
         <v>129.0132581705354</v>
@@ -24171,7 +24171,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24250,10 +24250,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -24332,7 +24332,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24387,7 +24387,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>129.0132581705354</v>
@@ -24405,10 +24405,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24490,7 +24490,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R26" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24542,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -24569,7 +24569,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24624,7 +24624,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>129.0132581705354</v>
@@ -24642,7 +24642,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>151.5050016294458</v>
@@ -24779,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -24806,7 +24806,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24861,13 +24861,13 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>138.9257839476051</v>
@@ -24882,7 +24882,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24961,10 +24961,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -25016,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -25043,7 +25043,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25098,10 +25098,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>134.8846762812383</v>
@@ -25116,10 +25116,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25198,10 +25198,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25253,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -25280,7 +25280,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25335,7 +25335,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>129.0132581705354</v>
@@ -25353,10 +25353,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>220.0898510449805</v>
@@ -25438,7 +25438,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R38" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -25517,7 +25517,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25575,7 +25575,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -25590,10 +25590,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
@@ -25672,10 +25672,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25727,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -25809,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -25827,10 +25827,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -25909,10 +25909,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25964,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -25991,7 +25991,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26046,10 +26046,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>134.8846762812383</v>
@@ -26064,10 +26064,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>91367.43262267609</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>84854.08929509544</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>91367.43262267609</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>85885.15596712069</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>91367.43262267609</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>50446.93239227105</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>91442.81527642599</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>62928.48741873164</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>20657.28104178233</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>28187.52148322483</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>57986.16054529468</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>53438.87609901249</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>59936.54371199019</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>87941.47175267609</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.192347554024309e-11</v>
+        <v>91367.43262267609</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1286.865248206707</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1195.128018240782</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1286.865248206707</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1209.650084043954</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1286.865248206707</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>710.5201745390291</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1287.926975724311</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>886.3167242074884</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>290.9476203067937</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>397.0073448341528</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>816.7064865534464</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>752.660226746655</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>844.1766719998625</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1238.612278206707</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1286.865248206707</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2573.730496413413</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2390.256036481564</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2573.730496413413</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2419.300168087908</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2573.730496413413</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1421.040349078058</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2575.853951448622</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1772.633448414977</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>581.8952406135875</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>794.0146896683057</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1633.412973106893</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1505.32045349331</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1688.353343999725</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2477.224556413413</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2573.730496413413</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_1.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263724.5473518896</v>
+        <v>-109163.0501070898</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11999055.8970861</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29311355.01008761</v>
+        <v>30789066.36991068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825236.3227748527</v>
+        <v>-1.378726134181789e-10</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
@@ -22591,10 +22591,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
         <v>137.841438974359</v>
@@ -22673,7 +22673,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
         <v>134.8846762812383</v>
@@ -22746,10 +22746,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
         <v>220.0898510449805</v>
@@ -22828,10 +22828,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22886,7 +22886,7 @@
         <v>99.52238</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22986,7 +22986,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K8" t="n">
         <v>220.0898510449805</v>
@@ -23065,10 +23065,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K9" t="n">
         <v>137.841438974359</v>
@@ -23147,7 +23147,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,10 +23202,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L10" t="n">
         <v>134.8846762812383</v>
@@ -23220,10 +23220,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23302,10 +23302,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -23375,7 +23375,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -23445,22 +23445,22 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K14" t="n">
         <v>220.0898510449805</v>
@@ -23539,10 +23539,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23594,10 +23594,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -23621,7 +23621,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L16" t="n">
         <v>134.8846762812383</v>
@@ -23694,10 +23694,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
@@ -23779,7 +23779,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23831,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -23858,7 +23858,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23916,7 +23916,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L19" t="n">
         <v>134.8846762812383</v>
@@ -23931,10 +23931,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K20" t="n">
         <v>220.0898510449805</v>
@@ -24013,10 +24013,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24068,13 +24068,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -24095,7 +24095,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24150,7 +24150,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K22" t="n">
         <v>129.0132581705354</v>
@@ -24171,7 +24171,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24250,10 +24250,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -24332,7 +24332,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24387,7 +24387,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K25" t="n">
         <v>129.0132581705354</v>
@@ -24405,10 +24405,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24490,7 +24490,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24542,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -24569,7 +24569,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24624,7 +24624,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K28" t="n">
         <v>129.0132581705354</v>
@@ -24642,7 +24642,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q28" t="n">
         <v>151.5050016294458</v>
@@ -24779,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -24806,7 +24806,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24861,13 +24861,13 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
         <v>138.9257839476051</v>
@@ -24882,7 +24882,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24961,10 +24961,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -25016,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -25043,7 +25043,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25098,10 +25098,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L34" t="n">
         <v>134.8846762812383</v>
@@ -25116,10 +25116,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25198,10 +25198,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25253,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -25280,7 +25280,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25335,7 +25335,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K37" t="n">
         <v>129.0132581705354</v>
@@ -25353,10 +25353,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K38" t="n">
         <v>220.0898510449805</v>
@@ -25438,7 +25438,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -25517,7 +25517,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25575,7 +25575,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -25590,10 +25590,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
@@ -25672,10 +25672,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25727,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -25809,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -25827,10 +25827,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -25909,10 +25909,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25964,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -25991,7 +25991,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26046,10 +26046,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L46" t="n">
         <v>134.8846762812383</v>
@@ -26064,10 +26064,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>91367.43262267609</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>84854.08929509544</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>91367.43262267609</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>85885.15596712069</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>91367.43262267609</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>50446.93239227105</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91442.81527642599</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>62928.48741873164</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20657.28104178233</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28187.52148322483</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>57986.16054529468</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>53438.87609901249</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>59936.54371199019</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>87941.47175267609</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>91367.43262267609</v>
+        <v>-1.192347554024309e-11</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1286.865248206707</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1195.128018240782</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.865248206707</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1209.650084043954</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1286.865248206707</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>710.5201745390291</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1287.926975724311</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>886.3167242074884</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>290.9476203067937</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0073448341528</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>816.7064865534464</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>752.660226746655</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>844.1766719998625</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1238.612278206707</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1286.865248206707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2573.730496413413</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2390.256036481564</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2573.730496413413</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2419.300168087908</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2573.730496413413</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1421.040349078058</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2575.853951448622</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1772.633448414977</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>581.8952406135875</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>794.0146896683057</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1633.412973106893</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1505.32045349331</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1688.353343999725</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2477.224556413413</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2573.730496413413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="C6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="D6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="E6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="F6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="G6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="H6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="I6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="J6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="K6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="L6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="M6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="N6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="O6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="P6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
     </row>
   </sheetData>
